--- a/docs/控制系统变量对应表.xlsx
+++ b/docs/控制系统变量对应表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662D3736-7D2A-4107-A775-DA106ACFB329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1852FC9-7BE3-48AF-BA6C-5D3AC6A10A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>自动/手动</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -98,10 +94,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">BYTE </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>升降平台1状态</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -147,10 +139,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0：油温低 1：油温高  2：液位低  4：液位高  8：滤芯堵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1#电动缸调平</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -177,14 +165,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>四个字节整型数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>升降平台上升停止压力值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -308,7 +288,27 @@
     <t>M23.2</t>
   </si>
   <si>
-    <t>按下保持，再按下弹起</t>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYTE  8位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：油温低 1：油温高  2：液位低  4：液位高  8：滤芯堵  16：正常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四个字节浮点数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float 32位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需保持</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -419,9 +419,6 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -441,6 +438,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -725,469 +725,469 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="6" customWidth="1"/>
-    <col min="3" max="3" width="58.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="60.75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="D7" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="C11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="D12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="C16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="C23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B24" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="C24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
+      <c r="D24" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
+      <c r="C25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="C27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="C28" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="C29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="C30" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="C31" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="C32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="C33" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="6"/>
+      <c r="A34" s="5"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="5"/>
+      <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="6"/>
+      <c r="A36" s="5"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="6"/>
+      <c r="A37" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/docs/控制系统变量对应表.xlsx
+++ b/docs/控制系统变量对应表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1852FC9-7BE3-48AF-BA6C-5D3AC6A10A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760DCD56-B8B8-4000-B2EA-0A7B373C0571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="82">
   <si>
     <t>传至上位机状态</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -131,10 +131,6 @@
     <t>VB1000.4</t>
   </si>
   <si>
-    <t>报警信号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>VB1004</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -165,150 +161,176 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>升降平台上升停止压力值</t>
+    <t>平台1倾斜角度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VD1018</t>
+  </si>
+  <si>
+    <t>平台2倾斜角度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VD1022</t>
+  </si>
+  <si>
+    <t>平台1位置信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VD1026</t>
+  </si>
+  <si>
+    <t>平台2位置信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VD1030</t>
+  </si>
+  <si>
+    <t>接收上位机命令</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>急停命令/恢复正常工作命令</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M22.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚性锁定命令</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M22.1</t>
+  </si>
+  <si>
+    <t>上升沿触发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚性解除命令</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M22.2</t>
+  </si>
+  <si>
+    <t>升降平台1上升命令</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M22.3</t>
+  </si>
+  <si>
+    <t>升降平台1下降回位命令</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M22.4</t>
+  </si>
+  <si>
+    <t>升降平台2上升命令</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M22.5</t>
+  </si>
+  <si>
+    <t>升降平台2下降回位命令</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M22.6</t>
+  </si>
+  <si>
+    <t>调平机构1调平命令</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M22.7</t>
+  </si>
+  <si>
+    <t>调平机构1回位命令</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M23.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调平机构2调平命令</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M23.1</t>
+  </si>
+  <si>
+    <t>调平机构2回位命令</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M23.2</t>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYTE  8位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四个字节浮点数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float 32位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需保持</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>油温报警</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1：油温低 2：油温高 4：正常 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>液位报警</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VB1005</t>
+  </si>
+  <si>
+    <t>1：液位低  2：液位高 4：正常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滤芯堵报警</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VB1006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1：滤芯堵 2：正常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升降平台上升停止压力</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>VD1014</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>平台1倾斜角度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VD1018</t>
-  </si>
-  <si>
-    <t>平台2倾斜角度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VD1022</t>
-  </si>
-  <si>
-    <t>平台1位置信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VD1026</t>
-  </si>
-  <si>
-    <t>平台2位置信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VD1030</t>
-  </si>
-  <si>
-    <t>接收上位机命令</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>急停命令/恢复正常工作命令</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M22.0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刚性锁定命令</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M22.1</t>
-  </si>
-  <si>
-    <t>上升沿触发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刚性解除命令</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M22.2</t>
-  </si>
-  <si>
-    <t>升降平台1上升命令</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M22.3</t>
-  </si>
-  <si>
-    <t>升降平台1下降回位命令</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M22.4</t>
-  </si>
-  <si>
-    <t>升降平台2上升命令</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M22.5</t>
-  </si>
-  <si>
-    <t>升降平台2下降回位命令</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M22.6</t>
-  </si>
-  <si>
-    <t>调平机构1调平命令</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M22.7</t>
-  </si>
-  <si>
-    <t>调平机构1回位命令</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M23.0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>调平机构2调平命令</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M23.1</t>
-  </si>
-  <si>
-    <t>调平机构2回位命令</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M23.2</t>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BYTE  8位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：油温低 1：油温高  2：液位低  4：液位高  8：滤芯堵  16：正常</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>四个字节浮点数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>float 32位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需保持</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -316,7 +338,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,13 +394,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线 Light"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -417,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -438,6 +474,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -723,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -738,12 +780,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -756,14 +798,14 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -777,7 +819,7 @@
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -791,7 +833,7 @@
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -812,7 +854,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -826,7 +868,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -840,14 +882,14 @@
         <v>19</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -861,7 +903,7 @@
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -873,192 +915,192 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>7</v>
+        <v>76</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>7</v>
+        <v>79</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>41</v>
+      <c r="A17" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>7</v>
+      <c r="D24" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>7</v>
@@ -1066,13 +1108,13 @@
     </row>
     <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>7</v>
@@ -1080,13 +1122,13 @@
     </row>
     <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>7</v>
@@ -1094,13 +1136,13 @@
     </row>
     <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>7</v>
@@ -1108,13 +1150,13 @@
     </row>
     <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>7</v>
@@ -1122,13 +1164,13 @@
     </row>
     <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>7</v>
@@ -1136,13 +1178,13 @@
     </row>
     <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>7</v>
@@ -1150,13 +1192,13 @@
     </row>
     <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>7</v>
@@ -1164,35 +1206,63 @@
     </row>
     <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-      <c r="D35" s="5"/>
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A23:D23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
